--- a/Course Agenda.xlsx
+++ b/Course Agenda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="141" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="198" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -173,7 +173,43 @@
     <t>Потоки символьные и байтовые.</t>
   </si>
   <si>
-    <t>11. Работа с файлами и NIO.2.</t>
+    <t>11. Обработка ошибок</t>
+  </si>
+  <si>
+    <t>Выбрасывание исключений.</t>
+  </si>
+  <si>
+    <t>Типы исключений.</t>
+  </si>
+  <si>
+    <t>Multi-Catch, Finally блоки, try with resources</t>
+  </si>
+  <si>
+    <t>Комманда assert</t>
+  </si>
+  <si>
+    <t>12. Работа с базой данных с помощью JDBC.</t>
+  </si>
+  <si>
+    <t>Архитектура JDBC.</t>
+  </si>
+  <si>
+    <t>Соединение с базой, драйвера БД.</t>
+  </si>
+  <si>
+    <t>Выполнение запросов.</t>
+  </si>
+  <si>
+    <t>PreparedStatement.</t>
+  </si>
+  <si>
+    <t>Пул соединений.</t>
+  </si>
+  <si>
+    <t>Транзакции.</t>
+  </si>
+  <si>
+    <t>13. Работа с файлами и NIO.2.</t>
   </si>
   <si>
     <t>Классы File, Path.</t>
@@ -183,42 +219,6 @@
   </si>
   <si>
     <t>Операции над файлами.</t>
-  </si>
-  <si>
-    <t>12. Работа с базой данных с помощью JDBC.</t>
-  </si>
-  <si>
-    <t>Архитектура JDBC.</t>
-  </si>
-  <si>
-    <t>Соединение с базой, драйвера БД.</t>
-  </si>
-  <si>
-    <t>Выполнение запросов.</t>
-  </si>
-  <si>
-    <t>PreparedStatement.</t>
-  </si>
-  <si>
-    <t>Пул соединений.</t>
-  </si>
-  <si>
-    <t>Транзакции.</t>
-  </si>
-  <si>
-    <t>13. Обработка ошибок.</t>
-  </si>
-  <si>
-    <t>Выбрасывание исключений.</t>
-  </si>
-  <si>
-    <t>Типы исключений.</t>
-  </si>
-  <si>
-    <t>Multi-Catch, Finally блоки, try with resources</t>
-  </si>
-  <si>
-    <t>Комманда assert</t>
   </si>
   <si>
     <t>14. Локализация.</t>
@@ -479,7 +479,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -501,10 +501,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -587,8 +583,8 @@
   </sheetPr>
   <dimension ref="A1:B138"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B114" activeCellId="0" sqref="B114"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B73" activeCellId="0" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -921,17 +917,17 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3"/>
+      <c r="B61" s="0" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" s="0" t="s">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3"/>
       <c r="B63" s="0" t="s">
         <v>58</v>
       </c>
@@ -960,16 +956,16 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3"/>
+      <c r="B68" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B69" s="0" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3"/>
       <c r="B70" s="0" t="s">
         <v>65</v>
       </c>
@@ -1218,7 +1214,7 @@
       <c r="A118" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="0" t="s">
         <v>110</v>
       </c>
     </row>
